--- a/biology/Zoologie/Appias_nero/Appias_nero.xlsx
+++ b/biology/Zoologie/Appias_nero/Appias_nero.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albatros orange
 Appias nero, l’Albatros orange, est une espèce de lépidoptères (papillons) de la sous-famille des Pierinae (famille des Pieridae). Il se rencontre dans le Nord de l'Inde et en Asie du Sud-Est.
-C'est sans doute l'unique espèce de papillons connue entièrement orange[1].
+C'est sans doute l'unique espèce de papillons connue entièrement orange.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon, au corps long et mince et atteignant 8 cm d'envergure, est remarquable car il est entièrement orange (pour le mâle). Il a des nervures noires sur les ailes et de longues antennes fines. La femelle possède en plus des marges alaires noires et une bande noire sur les ailes postérieures[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon, au corps long et mince et atteignant 8 cm d'envergure, est remarquable car il est entièrement orange (pour le mâle). Il a des nervures noires sur les ailes et de longues antennes fines. La femelle possède en plus des marges alaires noires et une bande noire sur les ailes postérieures.
 La chenille se nourrit de feuilles de capparidacées, notamment du genre Capparis.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rencontre dans le Sud-Est asiatique, du nord de l'Inde au Vietnam, en Malaisie et à Taïwan, aux Philippines, à Bornéo et à Java, à Sumatra et à Bali et îles proches.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts tropicales des zones humides. Le mâle apprécie les rives sableuses. La femelle vit dans les cimes des arbres.
 </t>
@@ -607,7 +625,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">[réf. nécessaire]
 Appias nero baweanicus
@@ -653,16 +673,18 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Appias nero (Fabricius, 1793)[3].
-Appias nero a pour synonymes[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Appias nero (Fabricius, 1793).
+Appias nero a pour synonymes :
 Appias nero subsp. domitia (C.Felder &amp; R.Felder, 1862)
 Appias nero subsp. yamazakii Sonan, 1936
 Pieris asterope Felder &amp; Felder, 1862
 Pieris domitia Felder &amp; Felder, 1862
 Pieris zamboanga Felder &amp; Felder, 1862
-Tachyris nero hainanesis Fruhstorfer, 1902[4]</t>
+Tachyris nero hainanesis Fruhstorfer, 1902</t>
         </is>
       </c>
     </row>
